--- a/Week1/Assignments/MOCK_DATA (3).xlsx
+++ b/Week1/Assignments/MOCK_DATA (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef8a8f967e50cd1d/Documents/GitHub/Coding_Temple/Week1/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{346B6EE3-105A-4C0A-80D9-073C19361C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA922946-B468-4910-8920-76CBC6D3134D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B7036B-2503-4E97-9F2E-8433B02F3C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-510" yWindow="-14295" windowWidth="20580" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2955" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Week1</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Worst Attendance</t>
+  </si>
+  <si>
+    <t>Attendance must be &gt;= 70% or FAIL</t>
+  </si>
+  <si>
+    <t>Attendance Tracker</t>
+  </si>
+  <si>
+    <t>Class Average per week</t>
   </si>
 </sst>
 </file>
@@ -178,13 +187,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,14 +568,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
@@ -599,19 +612,19 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
@@ -627,19 +640,19 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
@@ -655,19 +668,19 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
@@ -683,19 +696,19 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
@@ -711,19 +724,19 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
       <c r="G9">
@@ -739,19 +752,19 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
@@ -767,19 +780,19 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
@@ -795,19 +808,19 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
       <c r="G12">
@@ -823,19 +836,19 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
@@ -851,19 +864,19 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
@@ -879,19 +892,19 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
@@ -907,19 +920,19 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
@@ -935,19 +948,19 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
@@ -963,19 +976,19 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
       <c r="G18">
@@ -991,19 +1004,19 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
@@ -1019,19 +1032,19 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>5</v>
       </c>
       <c r="G20">
@@ -1047,19 +1060,19 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
@@ -1075,19 +1088,19 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
@@ -1103,19 +1116,19 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
@@ -1131,19 +1144,19 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
         <v>4</v>
       </c>
       <c r="G24">
@@ -1156,34 +1169,34 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <f>AVERAGE(B5:B24)</f>
         <v>2.1</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f t="shared" ref="C25:G25" si="2">AVERAGE(C5:C24)</f>
         <v>3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <f t="shared" si="2"/>
         <v>2.35</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <f t="shared" si="2"/>
         <v>2.4624999999999999</v>
       </c>
-      <c r="H25" s="2" t="b">
+      <c r="H25" s="1" t="b">
         <f>IF(SUM(B25:E25)&lt;=3.5,0,FALSE)</f>
         <v>0</v>
       </c>
@@ -1211,656 +1224,648 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4B9E16-AF59-4D4E-817B-0D598CBE3F33}">
-  <dimension ref="A5:H28"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <f>AVERAGE(B6:E6)</f>
         <v>1.75</v>
       </c>
-      <c r="H6" s="3" t="b">
+      <c r="H6" t="b">
         <f>IF(SUM(B6:E6)&gt;=14,0,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <f t="shared" ref="G7:G25" si="0">AVERAGE(B7:E7)</f>
         <v>1.5</v>
       </c>
-      <c r="H7" s="3" t="b">
+      <c r="H7" t="b">
         <f t="shared" ref="H7:H25" si="1">IF(SUM(B7:E7)&gt;=14,0,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="H8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="H9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="H10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="H11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="H14" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="H14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="H15" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="H15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="H16" s="3" t="b">
+      <c r="H16" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="b">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H18" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H19" s="3" t="b">
+      <c r="H19" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H21" s="3" t="b">
+      <c r="H21" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H22" s="3" t="b">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="b">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H23" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H24" s="3" t="b">
+      <c r="H24" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H25" s="3" t="b">
+      <c r="H25" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
         <f>AVERAGE(B6:B25)</f>
         <v>2.1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <f t="shared" ref="C26:G26" si="2">AVERAGE(C6:C25)</f>
         <v>3</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <f t="shared" si="2"/>
         <v>2.35</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <f t="shared" si="2"/>
         <v>2.4624999999999999</v>
       </c>
-      <c r="H26" s="2" t="b">
+      <c r="H26" s="1" t="b">
         <f>IF(SUM(B26:E26)&lt;=3.5,0,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
